--- a/data/long_dif/P24_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_2-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,08</t>
+          <t>8,82; 16,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 20,0</t>
+          <t>13,11; 21,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 26,85</t>
+          <t>16,09; 24,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,05</t>
+          <t>11,97; 21,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,44</t>
+          <t>12,65; 19,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,7; 25,42</t>
+          <t>11,63; 17,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,26</t>
+          <t>18,89; 25,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,33</t>
+          <t>15,49; 23,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 24,17</t>
+          <t>11,68; 16,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 18,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 24,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,67; 20,46</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,33%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>68,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>62,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>62,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63,55%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,42; 76,33</t>
+          <t>65,97; 76,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,95; 69,8</t>
+          <t>58,25; 69,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,17; 68,06</t>
+          <t>58,94; 69,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,15; 69,28</t>
+          <t>61,6; 73,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,51; 66,44</t>
+          <t>60,92; 69,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,24; 65,48</t>
+          <t>57,29; 66,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 71,69</t>
+          <t>56,86; 64,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,86; 67,01</t>
+          <t>55,5; 65,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,89; 65,41</t>
+          <t>64,59; 71,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58,95; 66,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58,93; 65,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59,56; 68,03</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 21,29</t>
+          <t>13,3; 21,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,41; 24,79</t>
+          <t>15,1; 25,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 19,66</t>
+          <t>12,5; 19,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,92</t>
+          <t>12,84; 21,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 27,91</t>
+          <t>16,11; 22,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,96</t>
+          <t>20,81; 28,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,51</t>
+          <t>14,61; 20,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 24,85</t>
+          <t>17,03; 25,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,76</t>
+          <t>15,83; 20,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 25,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 18,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,84; 22,27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 26,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 22,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,79%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>69,79%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,0; 76,6</t>
+          <t>9,59; 16,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,83; 68,54</t>
+          <t>12,08; 24,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,56; 70,98</t>
+          <t>14,82; 22,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,51; 73,39</t>
+          <t>11,63; 20,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,81; 70,52</t>
+          <t>8,84; 15,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,83; 65,11</t>
+          <t>12,7; 20,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,64; 73,54</t>
+          <t>16,89; 24,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,0; 67,78</t>
+          <t>11,88; 19,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,09; 66,69</t>
+          <t>10,07; 14,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 20,35</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 22,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 18,89</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>65,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63,92%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63,3%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,09; 24,02</t>
+          <t>63,21; 75,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 25,82</t>
+          <t>55,45; 68,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,43</t>
+          <t>60,66; 70,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,8; 24,05</t>
+          <t>61,42; 73,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,95; 23,73</t>
+          <t>63,79; 73,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,03</t>
+          <t>59,9; 70,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,73</t>
+          <t>55,91; 65,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 23,07</t>
+          <t>52,52; 63,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,24; 19,32</t>
+          <t>65,18; 72,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>59,77; 67,57</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,63; 66,72</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58,33; 67,14</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,64%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,78</t>
+          <t>12,92; 24,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 35,83</t>
+          <t>16,56; 25,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,55</t>
+          <t>12,26; 20,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 27,07</t>
+          <t>12,34; 22,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 22,85</t>
+          <t>15,67; 23,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 21,85</t>
+          <t>14,54; 23,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 17,62</t>
+          <t>15,36; 23,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 27,12</t>
+          <t>20,97; 31,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 16,4</t>
+          <t>15,6; 22,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 23,19</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14,86; 20,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 25,72</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>63,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,2; 84,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,35; 72,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,88; 82,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,72; 71,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,17; 77,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,67; 71,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,93; 75,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>55,52; 71,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>62,62; 75,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,43; 38,66</t>
+          <t>3,52; 14,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 30,21</t>
+          <t>10,55; 42,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,4; 23,55</t>
+          <t>5,16; 16,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,8; 31,19</t>
+          <t>2,18; 13,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,34; 25,12</t>
+          <t>11,39; 26,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,53; 30,87</t>
+          <t>8,71; 22,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,36; 30,92</t>
+          <t>9,69; 21,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,3; 25,04</t>
+          <t>7,85; 21,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,9</t>
+          <t>8,61; 17,95</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 30,44</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8,52; 17,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 14,57</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>67,92%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>68,98%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>60,88%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,84</t>
+          <t>50,2; 80,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,4</t>
+          <t>44,4; 70,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,62</t>
+          <t>66,03; 81,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,9</t>
+          <t>41,34; 79,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,67</t>
+          <t>56,99; 74,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,31; 23,1</t>
+          <t>58,63; 76,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,32</t>
+          <t>55,63; 71,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,45</t>
+          <t>44,24; 66,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,79; 21,39</t>
+          <t>57,13; 74,84</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>54,62; 71,24</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>62,37; 74,6</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>47,19; 69,64</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>63,37%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>67,65; 74,98</t>
+          <t>11,92; 45,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>58,89; 67,06</t>
+          <t>12,79; 30,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>62,77; 69,33</t>
+          <t>10,49; 23,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>63,04; 69,18</t>
+          <t>14,16; 54,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>60,53; 66,77</t>
+          <t>9,59; 23,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>58,24; 63,93</t>
+          <t>10,91; 25,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>66,38; 71,27</t>
+          <t>15,05; 29,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>61,0; 66,39</t>
+          <t>22,53; 42,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>61,29; 65,58</t>
+          <t>13,09; 32,2</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 25,02</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 24,4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 46,16</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,29; 20,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,3; 18,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 14,65</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 21,55</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 20,97</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>11,99; 18,08</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 16,82</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 17,21</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>18,32; 23,05</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 19,7</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 14,81</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 18,19</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 21,3</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 17,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>70,57%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>65,93%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>67,25%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>63,69%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>60,89%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>59,2%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>68,54%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>63,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 74,2</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>58,42; 66,85</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>62,63; 69,12</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>62,61; 71,75</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>63,34; 69,34</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>60,59; 66,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>58,26; 63,87</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>55,6; 62,71</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>65,99; 70,9</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>60,84; 65,96</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>61,25; 65,67</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 65,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 21,93</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 23,63</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 18,64</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 22,38</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 21,72</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 24,38</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 20,52</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 26,98</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 20,57</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 22,79</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 18,95</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 23,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
